--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\816\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0157BD-2667-4129-9893-E86C02A55538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC11B6E-DB30-4A2F-9972-4BE73E3A2616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="板卡问题记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$310</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4934" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="711">
   <si>
     <t>vendorID</t>
   </si>
@@ -2128,6 +2128,50 @@
   </si>
   <si>
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/07.726.02.00-1_Driver_Linux.tgz</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>19e5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>d120</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.16</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.08.16</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.07-0.5.0</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>226M</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>217M</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2440092e94f64d9d277c21c5f74e16939d93aa350fe8507cb3be8210161d63b4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3244fc0531de15842375522da7924dc35e1ce97941133fcbcc1fc0a64c6517cf</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.07-0.5.0.0-openeuler22.03-aarch64.tgz</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.07-0.5.0.0-openeuler22.03-x86_64.tgz</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2337,7 +2381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -2607,6 +2651,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2953,11 +2998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ310"/>
+  <dimension ref="A1:AMJ312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q320" sqref="Q320"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K318" sqref="K318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -48463,8 +48508,114 @@
       <c r="AMI310" s="16"/>
       <c r="AMJ310" s="16"/>
     </row>
+    <row r="311" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A311" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B311" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C311" s="117" t="s">
+        <v>700</v>
+      </c>
+      <c r="D311" s="117" t="s">
+        <v>701</v>
+      </c>
+      <c r="E311" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F311" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G311" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H311" s="117" t="s">
+        <v>704</v>
+      </c>
+      <c r="I311" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J311" s="117" t="s">
+        <v>702</v>
+      </c>
+      <c r="K311" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="L311" s="117" t="s">
+        <v>706</v>
+      </c>
+      <c r="M311" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N311" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="O311" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="P311" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q311" s="109" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A312" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B312" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E312" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F312" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G312" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H312" s="117" t="s">
+        <v>704</v>
+      </c>
+      <c r="I312" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J312" s="117" t="s">
+        <v>703</v>
+      </c>
+      <c r="K312" s="117" t="s">
+        <v>708</v>
+      </c>
+      <c r="L312" s="117" t="s">
+        <v>705</v>
+      </c>
+      <c r="M312" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N312" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="O312" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="P312" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q312" s="109" t="s">
+        <v>710</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U308" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U310" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83 E186:E187" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -48534,9 +48685,11 @@
     <hyperlink ref="Q308" r:id="rId60" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/elx-lpfc-dd-openEuler22-14.2.539.20-ds-1.tar.gz" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="Q309" r:id="rId61" xr:uid="{0D98A546-DDE8-4536-904B-B62413439C48}"/>
     <hyperlink ref="Q310" r:id="rId62" xr:uid="{CAECF3AE-C393-46A9-BDC3-90E0D26500C4}"/>
+    <hyperlink ref="Q311" r:id="rId63" xr:uid="{C51C4576-E430-447B-A86B-D626D2FC6513}"/>
+    <hyperlink ref="Q312" r:id="rId64" xr:uid="{CB6FD4DF-3374-4044-8EEB-0EB8FCB9EF92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>
 </worksheet>
 </file>
 

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\816\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\9.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC11B6E-DB30-4A2F-9972-4BE73E3A2616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA2670D-5B26-48B3-979C-49D1FFE5D240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4982" uniqueCount="717">
   <si>
     <t>vendorID</t>
   </si>
@@ -2172,6 +2172,26 @@
   </si>
   <si>
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.07-0.5.0.0-openeuler22.03-x86_64.tgz</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.02.09.00-k</t>
+  </si>
+  <si>
+    <t>2023.09.14</t>
+  </si>
+  <si>
+    <t>dab4dd5eb6dbcd2059e970896ac968992a2313fba68697db0e48c1096c5e9e17</t>
+  </si>
+  <si>
+    <t>636K</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/qla2xxx-src-v10.02.09.00-k.tar.gz</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>06030221</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2998,19 +3018,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ312"/>
+  <dimension ref="A1:AMJ322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K318" sqref="K318"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="16" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="16" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="16" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="16" customWidth="1"/>
@@ -48614,6 +48634,62 @@
         <v>710</v>
       </c>
     </row>
+    <row r="313" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A313" s="87">
+        <v>1077</v>
+      </c>
+      <c r="B313" s="13">
+        <v>2532</v>
+      </c>
+      <c r="C313" s="87">
+        <v>1077</v>
+      </c>
+      <c r="D313" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E313" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F313" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G313" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H313" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="I313" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J313" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="K313" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="L313" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="M313" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N313" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O313" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P313" s="117" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q313" s="109" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D322" s="98"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U310" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -48687,9 +48763,10 @@
     <hyperlink ref="Q310" r:id="rId62" xr:uid="{CAECF3AE-C393-46A9-BDC3-90E0D26500C4}"/>
     <hyperlink ref="Q311" r:id="rId63" xr:uid="{C51C4576-E430-447B-A86B-D626D2FC6513}"/>
     <hyperlink ref="Q312" r:id="rId64" xr:uid="{CB6FD4DF-3374-4044-8EEB-0EB8FCB9EF92}"/>
+    <hyperlink ref="Q313" r:id="rId65" xr:uid="{3932091A-5EEE-4CEC-8D0E-F1268A242668}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId65"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId66"/>
 </worksheet>
 </file>
 

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\9.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\9.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA2670D-5B26-48B3-979C-49D1FFE5D240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD445E1-117C-4D59-9D5A-85BC6D0692B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4982" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="718">
   <si>
     <t>vendorID</t>
   </si>
@@ -2192,6 +2192,10 @@
   </si>
   <si>
     <t>06030221</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.22</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2401,7 +2405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -2672,6 +2676,7 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3020,9 +3025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
+      <selection pane="bottomLeft" activeCell="Q318" sqref="Q318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3049,7 +3054,7 @@
     <col min="1025" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1024" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -48687,6 +48692,59 @@
         <v>715</v>
       </c>
     </row>
+    <row r="314" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A314" s="87">
+        <v>1077</v>
+      </c>
+      <c r="B314" s="13">
+        <v>2532</v>
+      </c>
+      <c r="C314" s="87">
+        <v>1077</v>
+      </c>
+      <c r="D314" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E314" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F314" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G314" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H314" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="I314" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J314" s="118" t="s">
+        <v>717</v>
+      </c>
+      <c r="K314" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="L314" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="M314" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N314" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O314" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P314" s="117" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q314" s="109" t="s">
+        <v>715</v>
+      </c>
+    </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D322" s="98"/>
     </row>
@@ -48764,9 +48822,10 @@
     <hyperlink ref="Q311" r:id="rId63" xr:uid="{C51C4576-E430-447B-A86B-D626D2FC6513}"/>
     <hyperlink ref="Q312" r:id="rId64" xr:uid="{CB6FD4DF-3374-4044-8EEB-0EB8FCB9EF92}"/>
     <hyperlink ref="Q313" r:id="rId65" xr:uid="{3932091A-5EEE-4CEC-8D0E-F1268A242668}"/>
+    <hyperlink ref="Q314" r:id="rId66" xr:uid="{B32EF4E8-19F8-4B03-8414-D365868FFC42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId66"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId67"/>
 </worksheet>
 </file>
 

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\9.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD445E1-117C-4D59-9D5A-85BC6D0692B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F599350C-BDD2-48EB-9858-C34DA6C406AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="726">
   <si>
     <t>vendorID</t>
   </si>
@@ -2196,6 +2196,38 @@
   </si>
   <si>
     <t>2023.09.22</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.10-1.1.9</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.31</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>7471bd140cb9381e0e849011c55378e672a616b57e92bdcdbaa02899a91460b0</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>319166e52569965cd5967e6d7140c12ee91519ec502c62044b1bbbf30ca4bc5a</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>173M</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>189M</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-1.1.9.0-openeuler22.03-aarch64.tgz</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-1.1.9.0-openeuler22.03-x86_64.tgz</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2405,7 +2437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -2677,6 +2709,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3025,9 +3058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q318" sqref="Q318"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q323" sqref="Q323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -48745,6 +48778,112 @@
         <v>715</v>
       </c>
     </row>
+    <row r="315" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A315" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B315" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D315" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E315" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F315" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G315" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H315" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="I315" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J315" s="117" t="s">
+        <v>719</v>
+      </c>
+      <c r="K315" s="119" t="s">
+        <v>720</v>
+      </c>
+      <c r="L315" s="117" t="s">
+        <v>722</v>
+      </c>
+      <c r="M315" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N315" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="O315" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="P315" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q315" s="109" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A316" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B316" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C316" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D316" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F316" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G316" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H316" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="I316" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J316" s="117" t="s">
+        <v>719</v>
+      </c>
+      <c r="K316" s="119" t="s">
+        <v>721</v>
+      </c>
+      <c r="L316" s="117" t="s">
+        <v>723</v>
+      </c>
+      <c r="M316" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N316" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="O316" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="P316" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q316" s="109" t="s">
+        <v>725</v>
+      </c>
+    </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D322" s="98"/>
     </row>
@@ -48823,9 +48962,11 @@
     <hyperlink ref="Q312" r:id="rId64" xr:uid="{CB6FD4DF-3374-4044-8EEB-0EB8FCB9EF92}"/>
     <hyperlink ref="Q313" r:id="rId65" xr:uid="{3932091A-5EEE-4CEC-8D0E-F1268A242668}"/>
     <hyperlink ref="Q314" r:id="rId66" xr:uid="{B32EF4E8-19F8-4B03-8414-D365868FFC42}"/>
+    <hyperlink ref="Q315" r:id="rId67" xr:uid="{B8E922DB-6D0B-42B4-B433-80DE6D3928F9}"/>
+    <hyperlink ref="Q316" r:id="rId68" xr:uid="{91FD4288-7C59-4238-950D-08524A623B0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId67"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId69"/>
 </worksheet>
 </file>
 
